--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostor\Documents\OneDrive\Desktop\Homework\Business Analytics\Mini Project 2\PoliticalAds2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ostor\Documents\OneDrive\Desktop\Homework\Business Analytics\Mini Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D68A072E-F372-4813-A3AC-3C5634281139}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC7050F-1564-43F9-9642-8962C86B4475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="6"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trump" sheetId="3" r:id="rId1"/>
@@ -26,12 +26,22 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'2020'!$E$1:$E$1053</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8318" uniqueCount="1245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8312" uniqueCount="1245">
   <si>
     <t>Spend</t>
   </si>
@@ -3771,7 +3781,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
@@ -4474,6 +4484,1483 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>The Effect of RunTime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> on Impressions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Pete!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Impressions</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Pete!$B$2:$B$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>39.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.524305555554747</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>27.482129629628616</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>27.482129629628616</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0391087962998427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Pete!$C$2:$C$65</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>106227</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96409</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>183518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29885</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>424676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>194987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47747</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>104187</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22156</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>209772</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17360</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67642</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31717</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>460787</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15528</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>108352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>89547</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170584</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>86275</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48647</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>197166</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>184435</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>99517</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>104354</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>165984</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>130516</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50827</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53610</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>794747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>776680</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>330353</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>300469</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>776720</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>326247</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>282465</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>289795</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>369006</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>784901</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>248354</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>216640</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>181242</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>771645</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>41151</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>637774</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>280257</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>173703</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63338</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>267392</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>193664</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>221127</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>609145</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>519</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30507</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>809</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48361</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>460</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>48935</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>26101</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>46029</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>643</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>28413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A4E9-4F69-BAB2-CF2ED8B2D3FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1780063856"/>
+        <c:axId val="1820400400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1780063856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>RunTime</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1820400400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1820400400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Impressions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1780063856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>792480</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>22866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AE4FF7D-226D-4CB1-BA3D-2127F537A458}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4770,7 +6257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5994,11 +7481,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6040,23 +7528,23 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>5</v>
+        <v>183</v>
       </c>
       <c r="B2">
         <f>E2-D2</f>
-        <v>4.0391087962998427</v>
+        <v>39.524305555554747</v>
       </c>
       <c r="C2">
-        <v>519</v>
+        <v>106227</v>
       </c>
       <c r="D2" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E2" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>1221</v>
@@ -6072,23 +7560,23 @@
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>302</v>
+        <v>164</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">E3-D3</f>
-        <v>4.0391087962998427</v>
+        <f>E3-D3</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C3">
-        <v>30507</v>
+        <v>96409</v>
       </c>
       <c r="D3" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E3" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="12"/>
@@ -6102,23 +7590,23 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>8</v>
+        <v>481</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E4-D4</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C4">
-        <v>809</v>
+        <v>183518</v>
       </c>
       <c r="D4" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E4" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H4" s="18" t="s">
         <v>1222</v>
@@ -6134,29 +7622,29 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>365</v>
+        <v>50</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>27.482129629628616</v>
+        <f>E5-D5</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C5">
-        <v>193664</v>
+        <v>29885</v>
       </c>
       <c r="D5" s="4">
-        <v>43834.72619212963</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E5" s="4">
-        <v>43862.208321759259</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H5" s="19" t="s">
         <v>1223</v>
       </c>
       <c r="I5" s="8">
-        <v>0.96582606244151425</v>
+        <v>0.97346224888965893</v>
       </c>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
@@ -6168,29 +7656,29 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>498</v>
+        <v>795</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E6-D6</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C6">
-        <v>48361</v>
+        <v>424676</v>
       </c>
       <c r="D6" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E6" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F6" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H6" s="19" t="s">
         <v>1224</v>
       </c>
       <c r="I6" s="8">
-        <v>0.93281998289127976</v>
+        <v>0.94762875001331237</v>
       </c>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
@@ -6202,29 +7690,29 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>464</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>E7-D7</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C7">
-        <v>1816</v>
+        <v>194987</v>
       </c>
       <c r="D7" s="4">
-        <v>43834.72761574074</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E7" s="4">
-        <v>43861.72761574074</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H7" s="19" t="s">
         <v>1225</v>
       </c>
       <c r="I7" s="8">
-        <v>0.93081460924624337</v>
+        <v>0.9459116598498144</v>
       </c>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
@@ -6236,29 +7724,29 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E8-D8</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C8">
-        <v>460</v>
+        <v>47747</v>
       </c>
       <c r="D8" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E8" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H8" s="19" t="s">
         <v>1226</v>
       </c>
       <c r="I8" s="8">
-        <v>56143.315049726472</v>
+        <v>51582.197266629613</v>
       </c>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
@@ -6270,29 +7758,29 @@
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>505</v>
+        <v>205</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E9-D9</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C9">
-        <v>48935</v>
+        <v>104187</v>
       </c>
       <c r="D9" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E9" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F9" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>1227</v>
       </c>
       <c r="I9" s="9">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
@@ -6304,23 +7792,23 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>415</v>
+        <v>50</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>27.482129629628616</v>
+        <f>E10-D10</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C10">
-        <v>221127</v>
+        <v>22156</v>
       </c>
       <c r="D10" s="4">
-        <v>43834.72619212963</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E10" s="4">
-        <v>43862.208321759259</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F10" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="12"/>
@@ -6334,23 +7822,23 @@
     </row>
     <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>0</v>
+        <v>506</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E11-D11</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C11">
-        <v>97</v>
+        <v>209772</v>
       </c>
       <c r="D11" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E11" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>1228</v>
@@ -6366,23 +7854,23 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E12-D12</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C12">
-        <v>26101</v>
+        <v>17360</v>
       </c>
       <c r="D12" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E12" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H12" s="21"/>
       <c r="I12" s="10" t="s">
@@ -6406,23 +7894,23 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>473</v>
+        <v>120</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E13-D13</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C13">
-        <v>46029</v>
+        <v>67642</v>
       </c>
       <c r="D13" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E13" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F13" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H13" s="19" t="s">
         <v>1229</v>
@@ -6431,16 +7919,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="8">
-        <v>2932436648835.3643</v>
+        <v>2936802894984.3745</v>
       </c>
       <c r="K13" s="8">
-        <v>1466218324417.6821</v>
+        <v>1468401447492.1873</v>
       </c>
       <c r="L13" s="8">
-        <v>465.16018857639654</v>
+        <v>551.88060019099964</v>
       </c>
       <c r="M13" s="8">
-        <v>5.1587405769494949E-40</v>
+        <v>8.5572586729776437E-40</v>
       </c>
       <c r="N13" s="12"/>
       <c r="O13" s="12"/>
@@ -6448,35 +7936,35 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>1241</v>
+        <v>51</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>E14-D14</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C14">
-        <v>609145</v>
+        <v>31717</v>
       </c>
       <c r="D14" s="4">
-        <v>43834.72761574074</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E14" s="4">
-        <v>43861.72761574074</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F14" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>1230</v>
       </c>
       <c r="I14" s="8">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J14" s="8">
-        <v>211188812259.78052</v>
+        <v>162304107566.06299</v>
       </c>
       <c r="K14" s="8">
-        <v>3152071824.7728434</v>
+        <v>2660723074.8534918</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -6486,32 +7974,32 @@
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
-        <v>6</v>
+        <v>878</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E15-D15</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C15">
-        <v>643</v>
+        <v>460787</v>
       </c>
       <c r="D15" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E15" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>1231</v>
       </c>
       <c r="I15" s="9">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="J15" s="9">
-        <v>3143625461095.1445</v>
+        <v>3099107002550.4375</v>
       </c>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
@@ -6522,23 +8010,23 @@
     </row>
     <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E16-D16</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C16">
-        <v>445</v>
+        <v>15528</v>
       </c>
       <c r="D16" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E16" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H16" s="16"/>
       <c r="I16" s="12"/>
@@ -6552,23 +8040,23 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>280</v>
+        <v>196</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>4.0391087962998427</v>
+        <f>E17-D17</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C17">
-        <v>28413</v>
+        <v>108352</v>
       </c>
       <c r="D17" s="4">
-        <v>43868.856724537036</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E17" s="4">
-        <v>43872.895833333336</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H17" s="21"/>
       <c r="I17" s="10" t="s">
@@ -6598,20 +8086,20 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>429</v>
+        <v>183</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>31.524305555554747</v>
+        <f>E18-D18</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C18">
-        <v>165984</v>
+        <v>89547</v>
       </c>
       <c r="D18" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E18" s="4">
-        <v>43865.207824074074</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F18" t="s">
         <v>91</v>
@@ -6620,40 +8108,40 @@
         <v>1232</v>
       </c>
       <c r="I18" s="8">
-        <v>-16328.125945386404</v>
+        <v>-58856.062803824723</v>
       </c>
       <c r="J18" s="8">
-        <v>14256.105060905622</v>
+        <v>16640.788891617263</v>
       </c>
       <c r="K18" s="8">
-        <v>-1.1453427058532883</v>
+        <v>-3.53685532501847</v>
       </c>
       <c r="L18" s="8">
-        <v>0.25614194515733901</v>
+        <v>7.8033846598607817E-4</v>
       </c>
       <c r="M18" s="8">
-        <v>-44783.43074281633</v>
+        <v>-92131.376744424415</v>
       </c>
       <c r="N18" s="8">
-        <v>12127.178852043526</v>
+        <v>-25580.748863225032</v>
       </c>
       <c r="O18" s="8">
-        <v>-44783.43074281633</v>
+        <v>-92131.376744424415</v>
       </c>
       <c r="P18" s="23">
-        <v>12127.178852043526</v>
+        <v>-25580.748863225032</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>183</v>
+        <v>503</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f>E19-D19</f>
         <v>39.524305555554747</v>
       </c>
       <c r="C19">
-        <v>106227</v>
+        <v>170584</v>
       </c>
       <c r="D19" s="4">
         <v>43833.683518518519</v>
@@ -6668,40 +8156,40 @@
         <v>0</v>
       </c>
       <c r="I19" s="8">
-        <v>417.70105536811559</v>
+        <v>417.66661532119031</v>
       </c>
       <c r="J19" s="8">
-        <v>14.072514186209983</v>
+        <v>13.00854151606028</v>
       </c>
       <c r="K19" s="8">
-        <v>29.682048981512597</v>
+        <v>32.107105535662178</v>
       </c>
       <c r="L19" s="8">
-        <v>2.8364714004231093E-40</v>
+        <v>6.4263469766373906E-40</v>
       </c>
       <c r="M19" s="8">
-        <v>389.61219949030095</v>
+        <v>391.65442889929034</v>
       </c>
       <c r="N19" s="8">
-        <v>445.78991124593023</v>
+        <v>443.67880174309028</v>
       </c>
       <c r="O19" s="8">
-        <v>389.61219949030095</v>
+        <v>391.65442889929034</v>
       </c>
       <c r="P19" s="23">
-        <v>445.78991124593023</v>
+        <v>443.67880174309028</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f>E20-D20</f>
         <v>39.524305555554747</v>
       </c>
       <c r="C20">
-        <v>96409</v>
+        <v>86275</v>
       </c>
       <c r="D20" s="4">
         <v>43833.683518518519</v>
@@ -6716,40 +8204,40 @@
         <v>1218</v>
       </c>
       <c r="I20" s="9">
-        <v>1072.0714239083247</v>
+        <v>2316.0474465441907</v>
       </c>
       <c r="J20" s="9">
-        <v>452.49653568864528</v>
+        <v>512.15469198292487</v>
       </c>
       <c r="K20" s="9">
-        <v>2.3692367550986022</v>
+        <v>4.5221638750922688</v>
       </c>
       <c r="L20" s="9">
-        <v>2.0714016973938598E-2</v>
+        <v>2.8798290534244487E-5</v>
       </c>
       <c r="M20" s="9">
-        <v>168.88455850628304</v>
+        <v>1291.9308452893151</v>
       </c>
       <c r="N20" s="9">
-        <v>1975.2582893103663</v>
+        <v>3340.1640477990663</v>
       </c>
       <c r="O20" s="9">
-        <v>168.88455850628304</v>
+        <v>1291.9308452893151</v>
       </c>
       <c r="P20" s="24">
-        <v>1975.2582893103663</v>
+        <v>3340.1640477990663</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
-        <v>481</v>
+        <v>83</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f>E21-D21</f>
         <v>39.524305555554747</v>
       </c>
       <c r="C21">
-        <v>183518</v>
+        <v>48647</v>
       </c>
       <c r="D21" s="4">
         <v>43833.683518518519</v>
@@ -6763,14 +8251,14 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>50</v>
+        <v>511</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f>E22-D22</f>
         <v>39.524305555554747</v>
       </c>
       <c r="C22">
-        <v>29885</v>
+        <v>197166</v>
       </c>
       <c r="D22" s="4">
         <v>43833.683518518519</v>
@@ -6794,14 +8282,14 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>795</v>
+        <v>493</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f>E23-D23</f>
         <v>39.524305555554747</v>
       </c>
       <c r="C23">
-        <v>424676</v>
+        <v>184435</v>
       </c>
       <c r="D23" s="4">
         <v>43833.683518518519</v>
@@ -6823,20 +8311,20 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>-2.4694791666697711</v>
+        <f>E24-D24</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C24">
-        <v>146456</v>
+        <v>99517</v>
       </c>
       <c r="D24" s="4">
-        <v>43833.677303240744</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E24" s="4">
-        <v>43831.207824074074</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F24" t="s">
         <v>91</v>
@@ -6845,7 +8333,7 @@
         <v>1218</v>
       </c>
       <c r="I24" s="8">
-        <v>0.1539060023421561</v>
+        <v>0.12305085936401004</v>
       </c>
       <c r="J24" s="8">
         <v>1</v>
@@ -6854,20 +8342,20 @@
     </row>
     <row r="25" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>257</v>
+        <v>192</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>31.524305555554747</v>
+        <f>E25-D25</f>
+        <v>39.524305555554747</v>
       </c>
       <c r="C25">
-        <v>130516</v>
+        <v>104354</v>
       </c>
       <c r="D25" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E25" s="4">
-        <v>43865.207824074074</v>
+        <v>43873.207824074074</v>
       </c>
       <c r="F25" t="s">
         <v>91</v>
@@ -6876,10 +8364,10 @@
         <v>1</v>
       </c>
       <c r="I25" s="9">
-        <v>0.96290789704672042</v>
+        <v>0.96440216309634041</v>
       </c>
       <c r="J25" s="9">
-        <v>0.22232587780732402</v>
+        <v>0.25016718778548397</v>
       </c>
       <c r="K25" s="9">
         <v>1</v>
@@ -6887,20 +8375,20 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>464</v>
+        <v>429</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E26-D26</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C26">
-        <v>194987</v>
+        <v>165984</v>
       </c>
       <c r="D26" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E26" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F26" t="s">
         <v>91</v>
@@ -6908,14 +8396,14 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f>E27-D27</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C27">
-        <v>50827</v>
+        <v>130516</v>
       </c>
       <c r="D27" s="4">
         <v>43833.683518518519</v>
@@ -6929,20 +8417,20 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>203</v>
+        <v>129</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>-2.4694791666697711</v>
+        <f>E28-D28</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C28">
-        <v>146917</v>
+        <v>50827</v>
       </c>
       <c r="D28" s="4">
-        <v>43833.677303240744</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E28" s="4">
-        <v>43831.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F28" t="s">
         <v>91</v>
@@ -6950,20 +8438,20 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E29-D29</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C29">
-        <v>47747</v>
+        <v>53610</v>
       </c>
       <c r="D29" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E29" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F29" t="s">
         <v>91</v>
@@ -6971,20 +8459,20 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>205</v>
+        <v>1861</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E30-D30</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C30">
-        <v>104187</v>
+        <v>794747</v>
       </c>
       <c r="D30" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E30" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F30" t="s">
         <v>91</v>
@@ -6992,14 +8480,14 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>105</v>
+        <v>1903</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f>E31-D31</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C31">
-        <v>53610</v>
+        <v>776680</v>
       </c>
       <c r="D31" s="4">
         <v>43833.683518518519</v>
@@ -7013,14 +8501,14 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>1861</v>
+        <v>580</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f>E32-D32</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C32">
-        <v>794747</v>
+        <v>330353</v>
       </c>
       <c r="D32" s="4">
         <v>43833.683518518519</v>
@@ -7034,20 +8522,20 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>50</v>
+        <v>555</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E33-D33</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C33">
-        <v>22156</v>
+        <v>300469</v>
       </c>
       <c r="D33" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E33" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F33" t="s">
         <v>91</v>
@@ -7055,20 +8543,20 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>560</v>
+        <v>1590</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
-        <v>-2.4694791666697711</v>
+        <f>E34-D34</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C34">
-        <v>281284</v>
+        <v>776720</v>
       </c>
       <c r="D34" s="4">
-        <v>43833.677303240744</v>
+        <v>43833.683518518519</v>
       </c>
       <c r="E34" s="4">
-        <v>43831.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F34" t="s">
         <v>91</v>
@@ -7076,14 +8564,14 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>1903</v>
+        <v>592</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f>E35-D35</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C35">
-        <v>776680</v>
+        <v>326247</v>
       </c>
       <c r="D35" s="4">
         <v>43833.683518518519</v>
@@ -7097,14 +8585,14 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>580</v>
+        <v>494</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f>E36-D36</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C36">
-        <v>330353</v>
+        <v>282465</v>
       </c>
       <c r="D36" s="4">
         <v>43833.683518518519</v>
@@ -7118,14 +8606,14 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f>E37-D37</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C37">
-        <v>300469</v>
+        <v>289795</v>
       </c>
       <c r="D37" s="4">
         <v>43833.683518518519</v>
@@ -7139,14 +8627,14 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>1590</v>
+        <v>670</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f>E38-D38</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C38">
-        <v>776720</v>
+        <v>369006</v>
       </c>
       <c r="D38" s="4">
         <v>43833.683518518519</v>
@@ -7160,14 +8648,14 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>592</v>
+        <v>2089</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f>E39-D39</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C39">
-        <v>326247</v>
+        <v>784901</v>
       </c>
       <c r="D39" s="4">
         <v>43833.683518518519</v>
@@ -7181,20 +8669,20 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>506</v>
+        <v>441</v>
       </c>
       <c r="B40">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E40-D40</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C40">
-        <v>209772</v>
+        <v>248354</v>
       </c>
       <c r="D40" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E40" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F40" t="s">
         <v>91</v>
@@ -7202,20 +8690,20 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>35</v>
+        <v>450</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E41-D41</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C41">
-        <v>17360</v>
+        <v>216640</v>
       </c>
       <c r="D41" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E41" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F41" t="s">
         <v>91</v>
@@ -7223,14 +8711,14 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>494</v>
+        <v>457</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
+        <f>E42-D42</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C42">
-        <v>282465</v>
+        <v>181242</v>
       </c>
       <c r="D42" s="4">
         <v>43833.683518518519</v>
@@ -7244,20 +8732,20 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>120</v>
+        <v>1659</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E43-D43</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C43">
-        <v>67642</v>
+        <v>771645</v>
       </c>
       <c r="D43" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E43" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F43" t="s">
         <v>91</v>
@@ -7265,14 +8753,14 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>544</v>
+        <v>90</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
+        <f>E44-D44</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C44">
-        <v>289795</v>
+        <v>41151</v>
       </c>
       <c r="D44" s="4">
         <v>43833.683518518519</v>
@@ -7286,14 +8774,14 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>670</v>
+        <v>1714</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
+        <f>E45-D45</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C45">
-        <v>369006</v>
+        <v>637774</v>
       </c>
       <c r="D45" s="4">
         <v>43833.683518518519</v>
@@ -7307,14 +8795,14 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>2089</v>
+        <v>503</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
+        <f>E46-D46</f>
         <v>31.524305555554747</v>
       </c>
       <c r="C46">
-        <v>784901</v>
+        <v>280257</v>
       </c>
       <c r="D46" s="4">
         <v>43833.683518518519</v>
@@ -7328,20 +8816,20 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>51</v>
+        <v>351</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E47-D47</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C47">
-        <v>31717</v>
+        <v>173703</v>
       </c>
       <c r="D47" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E47" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F47" t="s">
         <v>91</v>
@@ -7349,20 +8837,20 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>878</v>
+        <v>139</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E48-D48</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C48">
-        <v>460787</v>
+        <v>63338</v>
       </c>
       <c r="D48" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E48" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F48" t="s">
         <v>91</v>
@@ -7370,20 +8858,20 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>33</v>
+        <v>468</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E49-D49</f>
+        <v>31.524305555554747</v>
       </c>
       <c r="C49">
-        <v>15528</v>
+        <v>267392</v>
       </c>
       <c r="D49" s="4">
         <v>43833.683518518519</v>
       </c>
       <c r="E49" s="4">
-        <v>43873.207824074074</v>
+        <v>43865.207824074074</v>
       </c>
       <c r="F49" t="s">
         <v>91</v>
@@ -7391,476 +8879,355 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>441</v>
+        <v>365</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>31.524305555554747</v>
+        <f>E50-D50</f>
+        <v>27.482129629628616</v>
       </c>
       <c r="C50">
-        <v>248354</v>
+        <v>193664</v>
       </c>
       <c r="D50" s="4">
-        <v>43833.683518518519</v>
+        <v>43834.72619212963</v>
       </c>
       <c r="E50" s="4">
-        <v>43865.207824074074</v>
+        <v>43862.208321759259</v>
       </c>
       <c r="F50" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>196</v>
+        <v>415</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E51-D51</f>
+        <v>27.482129629628616</v>
       </c>
       <c r="C51">
-        <v>108352</v>
+        <v>221127</v>
       </c>
       <c r="D51" s="4">
-        <v>43833.683518518519</v>
+        <v>43834.72619212963</v>
       </c>
       <c r="E51" s="4">
-        <v>43873.207824074074</v>
+        <v>43862.208321759259</v>
       </c>
       <c r="F51" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>267</v>
+        <v>3</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>-2.4694791666697711</v>
+        <f>E52-D52</f>
+        <v>27</v>
       </c>
       <c r="C52">
-        <v>187808</v>
+        <v>1816</v>
       </c>
       <c r="D52" s="4">
-        <v>43833.677303240744</v>
+        <v>43834.72761574074</v>
       </c>
       <c r="E52" s="4">
-        <v>43831.207824074074</v>
+        <v>43861.72761574074</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>450</v>
+        <v>1241</v>
       </c>
       <c r="B53">
-        <f t="shared" si="0"/>
-        <v>31.524305555554747</v>
+        <f>E53-D53</f>
+        <v>27</v>
       </c>
       <c r="C53">
-        <v>216640</v>
+        <v>609145</v>
       </c>
       <c r="D53" s="4">
-        <v>43833.683518518519</v>
+        <v>43834.72761574074</v>
       </c>
       <c r="E53" s="4">
-        <v>43865.207824074074</v>
+        <v>43861.72761574074</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>457</v>
+        <v>5</v>
       </c>
       <c r="B54">
-        <f t="shared" si="0"/>
-        <v>31.524305555554747</v>
+        <f>E54-D54</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C54">
-        <v>181242</v>
+        <v>519</v>
       </c>
       <c r="D54" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E54" s="4">
-        <v>43865.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F54" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="B55">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E55-D55</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C55">
-        <v>89547</v>
+        <v>30507</v>
       </c>
       <c r="D55" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E55" s="4">
-        <v>43873.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>1659</v>
+        <v>8</v>
       </c>
       <c r="B56">
-        <f t="shared" si="0"/>
-        <v>31.524305555554747</v>
+        <f>E56-D56</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C56">
-        <v>771645</v>
+        <v>809</v>
       </c>
       <c r="D56" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E56" s="4">
-        <v>43865.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F56" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B57">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E57-D57</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C57">
-        <v>170584</v>
+        <v>48361</v>
       </c>
       <c r="D57" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E57" s="4">
-        <v>43873.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F57" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B58">
-        <f t="shared" si="0"/>
-        <v>-2.4694791666697711</v>
+        <f>E58-D58</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C58">
-        <v>21777</v>
+        <v>460</v>
       </c>
       <c r="D58" s="4">
-        <v>43833.677303240744</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E58" s="4">
-        <v>43831.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F58" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>158</v>
+        <v>505</v>
       </c>
       <c r="B59">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E59-D59</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C59">
-        <v>86275</v>
+        <v>48935</v>
       </c>
       <c r="D59" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E59" s="4">
-        <v>43873.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="B60">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E60-D60</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C60">
-        <v>48647</v>
+        <v>97</v>
       </c>
       <c r="D60" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E60" s="4">
-        <v>43873.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F60" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>511</v>
+        <v>256</v>
       </c>
       <c r="B61">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E61-D61</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C61">
-        <v>197166</v>
+        <v>26101</v>
       </c>
       <c r="D61" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E61" s="4">
-        <v>43873.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F61" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>493</v>
+        <v>473</v>
       </c>
       <c r="B62">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E62-D62</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C62">
-        <v>184435</v>
+        <v>46029</v>
       </c>
       <c r="D62" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E62" s="4">
-        <v>43873.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F62" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="B63">
-        <f t="shared" si="0"/>
-        <v>-2.4694791666697711</v>
+        <f>E63-D63</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C63">
-        <v>237386</v>
+        <v>643</v>
       </c>
       <c r="D63" s="4">
-        <v>43833.677303240744</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E63" s="4">
-        <v>43831.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F63" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="B64">
-        <f t="shared" si="0"/>
-        <v>39.524305555554747</v>
+        <f>E64-D64</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C64">
-        <v>99517</v>
+        <v>445</v>
       </c>
       <c r="D64" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E64" s="4">
-        <v>43873.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F64" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>90</v>
+        <v>280</v>
       </c>
       <c r="B65">
-        <f t="shared" si="0"/>
-        <v>31.524305555554747</v>
+        <f>E65-D65</f>
+        <v>4.0391087962998427</v>
       </c>
       <c r="C65">
-        <v>41151</v>
+        <v>28413</v>
       </c>
       <c r="D65" s="4">
-        <v>43833.683518518519</v>
+        <v>43868.856724537036</v>
       </c>
       <c r="E65" s="4">
-        <v>43865.207824074074</v>
+        <v>43872.895833333336</v>
       </c>
       <c r="F65" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>1714</v>
-      </c>
-      <c r="B66">
-        <f t="shared" si="0"/>
-        <v>31.524305555554747</v>
-      </c>
-      <c r="C66">
-        <v>637774</v>
-      </c>
-      <c r="D66" s="4">
-        <v>43833.683518518519</v>
-      </c>
-      <c r="E66" s="4">
-        <v>43865.207824074074</v>
-      </c>
-      <c r="F66" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>503</v>
-      </c>
-      <c r="B67">
-        <f t="shared" ref="B67:B71" si="1">E67-D67</f>
-        <v>31.524305555554747</v>
-      </c>
-      <c r="C67">
-        <v>280257</v>
-      </c>
-      <c r="D67" s="4">
-        <v>43833.683518518519</v>
-      </c>
-      <c r="E67" s="4">
-        <v>43865.207824074074</v>
-      </c>
-      <c r="F67" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>351</v>
-      </c>
-      <c r="B68">
-        <f t="shared" si="1"/>
-        <v>31.524305555554747</v>
-      </c>
-      <c r="C68">
-        <v>173703</v>
-      </c>
-      <c r="D68" s="4">
-        <v>43833.683518518519</v>
-      </c>
-      <c r="E68" s="4">
-        <v>43865.207824074074</v>
-      </c>
-      <c r="F68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>192</v>
-      </c>
-      <c r="B69">
-        <f t="shared" si="1"/>
-        <v>39.524305555554747</v>
-      </c>
-      <c r="C69">
-        <v>104354</v>
-      </c>
-      <c r="D69" s="4">
-        <v>43833.683518518519</v>
-      </c>
-      <c r="E69" s="4">
-        <v>43873.207824074074</v>
-      </c>
-      <c r="F69" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>139</v>
-      </c>
-      <c r="B70">
-        <f t="shared" si="1"/>
-        <v>31.524305555554747</v>
-      </c>
-      <c r="C70">
-        <v>63338</v>
-      </c>
-      <c r="D70" s="4">
-        <v>43833.683518518519</v>
-      </c>
-      <c r="E70" s="4">
-        <v>43865.207824074074</v>
-      </c>
-      <c r="F70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>468</v>
-      </c>
-      <c r="B71">
-        <f t="shared" si="1"/>
-        <v>31.524305555554747</v>
-      </c>
-      <c r="C71">
-        <v>267392</v>
-      </c>
-      <c r="D71" s="4">
-        <v>43833.683518518519</v>
-      </c>
-      <c r="E71" s="4">
-        <v>43865.207824074074</v>
-      </c>
-      <c r="F71" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
+    <sortCondition descending="1" ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
@@ -7908,7 +9275,7 @@
         <v>11547</v>
       </c>
       <c r="B2" s="2">
-        <f>E2-D2</f>
+        <f t="shared" ref="B2:B33" si="0">E2-D2</f>
         <v>7.9999884259232203</v>
       </c>
       <c r="C2">
@@ -7932,7 +9299,7 @@
         <v>10881</v>
       </c>
       <c r="B3" s="2">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C3">
@@ -7953,7 +9320,7 @@
         <v>3841</v>
       </c>
       <c r="B4" s="2">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>9.9111111111124046</v>
       </c>
       <c r="C4">
@@ -7978,7 +9345,7 @@
         <v>14199</v>
       </c>
       <c r="B5" s="2">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C5">
@@ -8005,7 +9372,7 @@
         <v>10815</v>
       </c>
       <c r="B6" s="2">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>9.9111111111124046</v>
       </c>
       <c r="C6">
@@ -8032,7 +9399,7 @@
         <v>5837</v>
       </c>
       <c r="B7" s="2">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C7">
@@ -8059,7 +9426,7 @@
         <v>16248</v>
       </c>
       <c r="B8" s="2">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C8">
@@ -8086,7 +9453,7 @@
         <v>12429</v>
       </c>
       <c r="B9" s="2">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C9">
@@ -8113,7 +9480,7 @@
         <v>12511</v>
       </c>
       <c r="B10" s="2">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C10">
@@ -8134,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="2">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C11">
@@ -8158,7 +9525,7 @@
         <v>0</v>
       </c>
       <c r="B12" s="2">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C12">
@@ -8195,7 +9562,7 @@
         <v>12188</v>
       </c>
       <c r="B13" s="2">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C13">
@@ -8234,7 +9601,7 @@
         <v>14373</v>
       </c>
       <c r="B14" s="2">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C14">
@@ -8269,7 +9636,7 @@
         <v>10599</v>
       </c>
       <c r="B15" s="2">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>9.9111111111124046</v>
       </c>
       <c r="C15">
@@ -8302,7 +9669,7 @@
         <v>21744</v>
       </c>
       <c r="B16" s="2">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C16">
@@ -8323,7 +9690,7 @@
         <v>9800</v>
       </c>
       <c r="B17" s="2">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C17">
@@ -8369,7 +9736,7 @@
         <v>16192</v>
       </c>
       <c r="B18" s="2">
-        <f>E18-D18</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C18">
@@ -8417,7 +9784,7 @@
         <v>10489</v>
       </c>
       <c r="B19" s="2">
-        <f>E19-D19</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C19">
@@ -8465,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="B20" s="2">
-        <f>E20-D20</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C20">
@@ -8513,7 +9880,7 @@
         <v>4128</v>
       </c>
       <c r="B21" s="2">
-        <f>E21-D21</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C21">
@@ -8534,7 +9901,7 @@
         <v>8490</v>
       </c>
       <c r="B22" s="2">
-        <f>E22-D22</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C22">
@@ -8555,7 +9922,7 @@
         <v>7321</v>
       </c>
       <c r="B23" s="2">
-        <f>E23-D23</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C23">
@@ -8587,7 +9954,7 @@
         <v>17624</v>
       </c>
       <c r="B24" s="2">
-        <f>E24-D24</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C24">
@@ -8617,7 +9984,7 @@
         <v>24496</v>
       </c>
       <c r="B25" s="2">
-        <f>E25-D25</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C25">
@@ -8649,7 +10016,7 @@
         <v>10528</v>
       </c>
       <c r="B26" s="2">
-        <f>E26-D26</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C26">
@@ -8683,7 +10050,7 @@
         <v>8324</v>
       </c>
       <c r="B27" s="2">
-        <f>E27-D27</f>
+        <f t="shared" si="0"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C27">
@@ -8717,7 +10084,7 @@
         <v>22918</v>
       </c>
       <c r="B28" s="2">
-        <f>E28-D28</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C28">
@@ -8751,7 +10118,7 @@
         <v>10213</v>
       </c>
       <c r="B29" s="2">
-        <f>E29-D29</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C29">
@@ -8785,7 +10152,7 @@
         <v>16716</v>
       </c>
       <c r="B30" s="2">
-        <f>E30-D30</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C30">
@@ -8819,7 +10186,7 @@
         <v>9472</v>
       </c>
       <c r="B31" s="2">
-        <f>E31-D31</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C31">
@@ -8849,7 +10216,7 @@
         <v>12577</v>
       </c>
       <c r="B32" s="2">
-        <f>E32-D32</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C32">
@@ -8881,7 +10248,7 @@
         <v>13934</v>
       </c>
       <c r="B33" s="2">
-        <f>E33-D33</f>
+        <f t="shared" si="0"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C33">
@@ -8921,7 +10288,7 @@
         <v>12766</v>
       </c>
       <c r="B34" s="2">
-        <f>E34-D34</f>
+        <f t="shared" ref="B34:B60" si="1">E34-D34</f>
         <v>7.9999884259232203</v>
       </c>
       <c r="C34">
@@ -8963,7 +10330,7 @@
         <v>10969</v>
       </c>
       <c r="B35" s="2">
-        <f>E35-D35</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C35">
@@ -9001,7 +10368,7 @@
         <v>32800</v>
       </c>
       <c r="B36" s="2">
-        <f>E36-D36</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C36">
@@ -9037,7 +10404,7 @@
         <v>3982</v>
       </c>
       <c r="B37" s="2">
-        <f>E37-D37</f>
+        <f t="shared" si="1"/>
         <v>9.9111111111124046</v>
       </c>
       <c r="C37">
@@ -9067,7 +10434,7 @@
         <v>19251</v>
       </c>
       <c r="B38" s="2">
-        <f>E38-D38</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C38">
@@ -9113,7 +10480,7 @@
         <v>10650</v>
       </c>
       <c r="B39" s="2">
-        <f>E39-D39</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C39">
@@ -9161,7 +10528,7 @@
         <v>12935</v>
       </c>
       <c r="B40" s="2">
-        <f>E40-D40</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C40">
@@ -9209,7 +10576,7 @@
         <v>6311</v>
       </c>
       <c r="B41" s="2">
-        <f>E41-D41</f>
+        <f t="shared" si="1"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C41">
@@ -9230,7 +10597,7 @@
         <v>3882</v>
       </c>
       <c r="B42" s="2">
-        <f>E42-D42</f>
+        <f t="shared" si="1"/>
         <v>9.9111111111124046</v>
       </c>
       <c r="C42">
@@ -9261,7 +10628,7 @@
         <v>3960</v>
       </c>
       <c r="B43" s="2">
-        <f>E43-D43</f>
+        <f t="shared" si="1"/>
         <v>9.9111111111124046</v>
       </c>
       <c r="C43">
@@ -9290,7 +10657,7 @@
         <v>5144</v>
       </c>
       <c r="B44" s="2">
-        <f>E44-D44</f>
+        <f t="shared" si="1"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C44">
@@ -9321,7 +10688,7 @@
         <v>5839</v>
       </c>
       <c r="B45" s="2">
-        <f>E45-D45</f>
+        <f t="shared" si="1"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C45">
@@ -9354,7 +10721,7 @@
         <v>9220</v>
       </c>
       <c r="B46" s="2">
-        <f>E46-D46</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C46">
@@ -9375,7 +10742,7 @@
         <v>12282</v>
       </c>
       <c r="B47" s="2">
-        <f>E47-D47</f>
+        <f t="shared" si="1"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C47">
@@ -9396,7 +10763,7 @@
         <v>0</v>
       </c>
       <c r="B48" s="2">
-        <f>E48-D48</f>
+        <f t="shared" si="1"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C48">
@@ -9417,7 +10784,7 @@
         <v>10458</v>
       </c>
       <c r="B49" s="2">
-        <f>E49-D49</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C49">
@@ -9438,7 +10805,7 @@
         <v>17459</v>
       </c>
       <c r="B50" s="2">
-        <f>E50-D50</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C50">
@@ -9459,7 +10826,7 @@
         <v>28872</v>
       </c>
       <c r="B51" s="2">
-        <f>E51-D51</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C51">
@@ -9480,7 +10847,7 @@
         <v>21842</v>
       </c>
       <c r="B52" s="2">
-        <f>E52-D52</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C52">
@@ -9501,7 +10868,7 @@
         <v>11875</v>
       </c>
       <c r="B53" s="2">
-        <f>E53-D53</f>
+        <f t="shared" si="1"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C53">
@@ -9522,7 +10889,7 @@
         <v>8319</v>
       </c>
       <c r="B54" s="2">
-        <f>E54-D54</f>
+        <f t="shared" si="1"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C54">
@@ -9543,7 +10910,7 @@
         <v>12650</v>
       </c>
       <c r="B55" s="2">
-        <f>E55-D55</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C55">
@@ -9564,7 +10931,7 @@
         <v>11762</v>
       </c>
       <c r="B56" s="2">
-        <f>E56-D56</f>
+        <f t="shared" si="1"/>
         <v>9.9944097222251003</v>
       </c>
       <c r="C56">
@@ -9585,7 +10952,7 @@
         <v>24443</v>
       </c>
       <c r="B57" s="2">
-        <f>E57-D57</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C57">
@@ -9606,7 +10973,7 @@
         <v>11716</v>
       </c>
       <c r="B58" s="2">
-        <f>E58-D58</f>
+        <f t="shared" si="1"/>
         <v>7.9999884259232203</v>
       </c>
       <c r="C58">
@@ -9627,7 +10994,7 @@
         <v>75000</v>
       </c>
       <c r="B59" s="2">
-        <f>E59-D59</f>
+        <f t="shared" si="1"/>
         <v>2.3287847222236451</v>
       </c>
       <c r="C59">
@@ -9648,7 +11015,7 @@
         <v>62175</v>
       </c>
       <c r="B60" s="2">
-        <f>E60-D60</f>
+        <f t="shared" si="1"/>
         <v>2.3315046296338551</v>
       </c>
       <c r="C60">
@@ -9671,7 +11038,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10215,7 +11582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10684,11 +12051,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10731,7 +12098,7 @@
         <v>124</v>
       </c>
       <c r="B2" s="2">
-        <f>E2-D2</f>
+        <f t="shared" ref="B2:B28" si="0">E2-D2</f>
         <v>11.375717592592991</v>
       </c>
       <c r="C2">
@@ -10763,7 +12130,7 @@
         <v>211</v>
       </c>
       <c r="B3" s="2">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C3">
@@ -10793,7 +12160,7 @@
         <v>300</v>
       </c>
       <c r="B4" s="2">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C4">
@@ -10825,7 +12192,7 @@
         <v>138</v>
       </c>
       <c r="B5" s="2">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C5">
@@ -10859,7 +12226,7 @@
         <v>370</v>
       </c>
       <c r="B6" s="2">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C6">
@@ -10893,7 +12260,7 @@
         <v>148</v>
       </c>
       <c r="B7" s="2">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C7">
@@ -10927,7 +12294,7 @@
         <v>147</v>
       </c>
       <c r="B8" s="2">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C8">
@@ -10961,7 +12328,7 @@
         <v>186</v>
       </c>
       <c r="B9" s="2">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C9">
@@ -10995,7 +12362,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="2">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C10">
@@ -11025,7 +12392,7 @@
         <v>145</v>
       </c>
       <c r="B11" s="2">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>11.37640046296292</v>
       </c>
       <c r="C11">
@@ -11057,7 +12424,7 @@
         <v>153</v>
       </c>
       <c r="B12" s="2">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>11.37640046296292</v>
       </c>
       <c r="C12">
@@ -11097,7 +12464,7 @@
         <v>111</v>
       </c>
       <c r="B13" s="2">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C13">
@@ -11139,7 +12506,7 @@
         <v>5</v>
       </c>
       <c r="B14" s="2">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C14">
@@ -11177,7 +12544,7 @@
         <v>349</v>
       </c>
       <c r="B15" s="2">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C15">
@@ -11213,7 +12580,7 @@
         <v>136</v>
       </c>
       <c r="B16" s="2">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C16">
@@ -11243,7 +12610,7 @@
         <v>146</v>
       </c>
       <c r="B17" s="2">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C17">
@@ -11289,7 +12656,7 @@
         <v>129</v>
       </c>
       <c r="B18" s="2">
-        <f>E18-D18</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C18">
@@ -11337,7 +12704,7 @@
         <v>122</v>
       </c>
       <c r="B19" s="2">
-        <f>E19-D19</f>
+        <f t="shared" si="0"/>
         <v>11.37640046296292</v>
       </c>
       <c r="C19">
@@ -11385,7 +12752,7 @@
         <v>182</v>
       </c>
       <c r="B20" s="2">
-        <f>E20-D20</f>
+        <f t="shared" si="0"/>
         <v>11.37640046296292</v>
       </c>
       <c r="C20">
@@ -11433,7 +12800,7 @@
         <v>149</v>
       </c>
       <c r="B21" s="2">
-        <f>E21-D21</f>
+        <f t="shared" si="0"/>
         <v>11.37640046296292</v>
       </c>
       <c r="C21">
@@ -11454,7 +12821,7 @@
         <v>159</v>
       </c>
       <c r="B22" s="2">
-        <f>E22-D22</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C22">
@@ -11485,7 +12852,7 @@
         <v>102</v>
       </c>
       <c r="B23" s="2">
-        <f>E23-D23</f>
+        <f t="shared" si="0"/>
         <v>11.37640046296292</v>
       </c>
       <c r="C23">
@@ -11514,7 +12881,7 @@
         <v>322</v>
       </c>
       <c r="B24" s="2">
-        <f>E24-D24</f>
+        <f t="shared" si="0"/>
         <v>11.37640046296292</v>
       </c>
       <c r="C24">
@@ -11545,7 +12912,7 @@
         <v>493</v>
       </c>
       <c r="B25" s="2">
-        <f>E25-D25</f>
+        <f t="shared" si="0"/>
         <v>11.37640046296292</v>
       </c>
       <c r="C25">
@@ -11578,7 +12945,7 @@
         <v>151</v>
       </c>
       <c r="B26" s="2">
-        <f>E26-D26</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C26">
@@ -11599,7 +12966,7 @@
         <v>78</v>
       </c>
       <c r="B27" s="2">
-        <f>E27-D27</f>
+        <f t="shared" si="0"/>
         <v>11.375717592592991</v>
       </c>
       <c r="C27">
@@ -11620,7 +12987,7 @@
         <v>104</v>
       </c>
       <c r="B28" s="2">
-        <f>E28-D28</f>
+        <f t="shared" si="0"/>
         <v>11.37640046296292</v>
       </c>
       <c r="C28">
@@ -11642,10 +13009,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
@@ -11693,7 +13060,7 @@
         <v>106</v>
       </c>
       <c r="B2">
-        <f>E2-D2</f>
+        <f t="shared" ref="B2:B14" si="0">E2-D2</f>
         <v>13.98289351852145</v>
       </c>
       <c r="C2">
@@ -11717,7 +13084,7 @@
         <v>2206</v>
       </c>
       <c r="B3">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>41.309328703704523</v>
       </c>
       <c r="C3">
@@ -11738,7 +13105,7 @@
         <v>147</v>
       </c>
       <c r="B4">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>41.309328703704523</v>
       </c>
       <c r="C4">
@@ -11763,7 +13130,7 @@
         <v>911</v>
       </c>
       <c r="B5">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>41.309328703704523</v>
       </c>
       <c r="C5">
@@ -11790,7 +13157,7 @@
         <v>98</v>
       </c>
       <c r="B6">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>41.309328703704523</v>
       </c>
       <c r="C6">
@@ -11817,7 +13184,7 @@
         <v>76</v>
       </c>
       <c r="B7">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>41.309328703704523</v>
       </c>
       <c r="C7">
@@ -11844,7 +13211,7 @@
         <v>60</v>
       </c>
       <c r="B8">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>13.98289351852145</v>
       </c>
       <c r="C8">
@@ -11871,7 +13238,7 @@
         <v>66</v>
       </c>
       <c r="B9">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>41.309328703704523</v>
       </c>
       <c r="C9">
@@ -11898,7 +13265,7 @@
         <v>257</v>
       </c>
       <c r="B10">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>22.000370370369637</v>
       </c>
       <c r="C10">
@@ -11919,7 +13286,7 @@
         <v>63</v>
       </c>
       <c r="B11">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>41.309328703704523</v>
       </c>
       <c r="C11">
@@ -11943,7 +13310,7 @@
         <v>87</v>
       </c>
       <c r="B12">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>41.309328703704523</v>
       </c>
       <c r="C12">
@@ -11980,7 +13347,7 @@
         <v>253</v>
       </c>
       <c r="B13">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>22.000370370369637</v>
       </c>
       <c r="C13">
@@ -12019,7 +13386,7 @@
         <v>68</v>
       </c>
       <c r="B14">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>41.309328703704523</v>
       </c>
       <c r="C14">
@@ -12546,7 +13913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -12593,7 +13960,7 @@
         <v>742</v>
       </c>
       <c r="B2" s="2">
-        <f>E2-D2</f>
+        <f t="shared" ref="B2:B21" si="0">E2-D2</f>
         <v>3.3256250000049477</v>
       </c>
       <c r="C2">
@@ -12625,7 +13992,7 @@
         <v>379</v>
       </c>
       <c r="B3" s="2">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>3.3256250000049477</v>
       </c>
       <c r="C3">
@@ -12655,7 +14022,7 @@
         <v>226</v>
       </c>
       <c r="B4" s="2">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>3.3256250000049477</v>
       </c>
       <c r="C4">
@@ -12687,7 +14054,7 @@
         <v>320</v>
       </c>
       <c r="B5" s="2">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>3.3256250000049477</v>
       </c>
       <c r="C5">
@@ -12721,7 +14088,7 @@
         <v>111</v>
       </c>
       <c r="B6" s="2">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C6">
@@ -12755,7 +14122,7 @@
         <v>12</v>
       </c>
       <c r="B7" s="2">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C7">
@@ -12789,7 +14156,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="2">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C8">
@@ -12823,7 +14190,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="2">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C9">
@@ -12857,7 +14224,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="2">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C10">
@@ -12887,7 +14254,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>4.0879513888867223</v>
       </c>
       <c r="C11">
@@ -12919,7 +14286,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="2">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C12">
@@ -12959,7 +14326,7 @@
         <v>22</v>
       </c>
       <c r="B13" s="2">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C13">
@@ -13001,7 +14368,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="2">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>4.0879513888867223</v>
       </c>
       <c r="C14">
@@ -13039,7 +14406,7 @@
         <v>156</v>
       </c>
       <c r="B15" s="2">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>4.0879513888867223</v>
       </c>
       <c r="C15">
@@ -13075,7 +14442,7 @@
         <v>27</v>
       </c>
       <c r="B16" s="2">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C16">
@@ -13105,7 +14472,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="2">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C17">
@@ -13151,7 +14518,7 @@
         <v>4</v>
       </c>
       <c r="B18" s="2">
-        <f>E18-D18</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C18">
@@ -13199,7 +14566,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="2">
-        <f>E19-D19</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C19">
@@ -13247,7 +14614,7 @@
         <v>31</v>
       </c>
       <c r="B20" s="2">
-        <f>E20-D20</f>
+        <f t="shared" si="0"/>
         <v>4.0879513888867223</v>
       </c>
       <c r="C20">
@@ -13295,7 +14662,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="2">
-        <f>E21-D21</f>
+        <f t="shared" si="0"/>
         <v>4.0923148148140172</v>
       </c>
       <c r="C21">
@@ -13368,7 +14735,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AB1053"/>
   <sheetViews>
@@ -45062,7 +46429,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E1053">
+  <autoFilter ref="E1:E1053" xr:uid="{00000000-0009-0000-0000-000008000000}">
     <filterColumn colId="0">
       <filters>
         <filter val="Voto Latino"/>
